--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F8" s="3">
         <v>166100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>180700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>176500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>170900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>174100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>179700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>181500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>188700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>162000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>181400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>166100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>166900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F9" s="3">
         <v>59100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>75400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>60200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>63100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>58600</v>
       </c>
       <c r="I9" s="3">
         <v>63100</v>
       </c>
       <c r="J9" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>63100</v>
+      </c>
+      <c r="L9" s="3">
         <v>61200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>71300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>53500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>58700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>50500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>61400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100100</v>
+      </c>
+      <c r="F10" s="3">
         <v>107000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>105300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>116300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>107800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>115500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>116600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>120300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>117400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>108500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>122700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>115600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>105500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +1003,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="E14" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>95400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -995,11 +1035,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>180700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>205100</v>
+      </c>
+      <c r="F17" s="3">
         <v>157100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>275500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>165600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>162900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>160200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>160400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>161500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>177000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>148700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>155700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>147600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>156100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-94800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>8000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>25700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>18500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,184 +1290,214 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F21" s="3">
         <v>18400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-85400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>20300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>29400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>21900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>34000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>27400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>19800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="F23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-99800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>13600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-96700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-96700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,14 +1722,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>24000</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>24000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-96700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>29300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-96700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>29300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F41" s="3">
         <v>17000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>29100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>66200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>59900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>62000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>26000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>25800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>28700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F43" s="3">
         <v>7700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4700</v>
       </c>
       <c r="L43" s="3">
         <v>9100</v>
       </c>
       <c r="M43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O43" s="3">
         <v>5100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>12700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F44" s="3">
         <v>81400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>70000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>85400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>77300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>78800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>61600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>77500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>80600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>85400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>62800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>73600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>66600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F45" s="3">
         <v>26400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>28100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>27700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>25100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>12600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>18600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F46" s="3">
         <v>132500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>131700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>135400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>175300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>171300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>151200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>136800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>132500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>136700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>109100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>120700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>104400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,98 +2483,116 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>319000</v>
+      </c>
+      <c r="F48" s="3">
         <v>331200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>331200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>337700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>118000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>113900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>113100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>113300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>118400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>106200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>102400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>102300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>190400</v>
+      </c>
+      <c r="F49" s="3">
         <v>229300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>232100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>330400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>333200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>336400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>339600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>342800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>346000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>349600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>353200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>356900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>360500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>618300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>634000</v>
+      </c>
+      <c r="F54" s="3">
         <v>694600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>695200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>803800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>627000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>622100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>604400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>593600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>597600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>569400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>580800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>568300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2879,65 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43100</v>
+      </c>
+      <c r="F57" s="3">
         <v>51000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>53000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>55100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>55000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>51600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>43100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>33300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>54000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>56500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>40500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>38500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>38400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>266700</v>
       </c>
       <c r="E58" s="3">
         <v>2800</v>
@@ -2705,186 +2973,216 @@
         <v>2800</v>
       </c>
       <c r="P58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>76600</v>
+      </c>
+      <c r="F59" s="3">
         <v>76000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>79800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>81100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>45300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>47100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>45700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>55600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>48300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>41400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>47800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>122400</v>
+      </c>
+      <c r="F60" s="3">
         <v>129800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>135600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>139000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>103100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>101500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>91600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>91700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>105500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>107600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>84700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>89200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>87400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>231200</v>
+      </c>
+      <c r="F61" s="3">
         <v>236500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>236800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>237100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>237500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>237800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>238200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>238500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>238900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>244100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>244400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>264200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>264400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>241800</v>
+      </c>
+      <c r="F62" s="3">
         <v>252300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>250200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>259700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>72600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>72400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>72000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>72300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>73800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>98700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>96800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>96100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>93600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>649500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>595400</v>
+      </c>
+      <c r="F66" s="3">
         <v>618500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>622600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>635800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>413200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>411700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>401800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>402500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>418200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>450400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>425900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>449500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>445400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-157200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-48400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-50700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>46000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>91700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>89600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>82900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>72500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>61500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>32100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>26100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>6100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F76" s="3">
         <v>76100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>72600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>168000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>213800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>210400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>202600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>191000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>179300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>149700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>143500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>131200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>122900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-96700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>29300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F83" s="3">
         <v>9500</v>
       </c>
       <c r="G83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I83" s="3">
         <v>9300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>37600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>38300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>14400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,14 +4628,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-50200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-52100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-700</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
       </c>
       <c r="K100" s="3">
-        <v>-5600</v>
+        <v>-700</v>
       </c>
       <c r="L100" s="3">
         <v>-700</v>
       </c>
       <c r="M100" s="3">
-        <v>-18500</v>
+        <v>-5600</v>
       </c>
       <c r="N100" s="3">
         <v>-700</v>
       </c>
       <c r="O100" s="3">
-        <v>-10300</v>
+        <v>-18500</v>
       </c>
       <c r="P100" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>14800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-51900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>33400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>13300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92600</v>
+      </c>
+      <c r="E8" s="3">
         <v>91000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>166100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>180700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>176500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>170900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>181500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>188700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>162000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>181400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>166100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E9" s="3">
         <v>40800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>68000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>60200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>58600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E10" s="3">
         <v>50200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>105300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>107800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>116600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>120300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>108500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>122700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>115600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>105500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,25 +1026,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E14" s="3">
         <v>52000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>36100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>95400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1041,8 +1061,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E17" s="3">
         <v>180700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>205100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>275500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>165600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>160200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>161500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>177000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>148700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>155700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>147600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>156100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-89700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-37000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-94800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,208 +1330,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-80700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-85400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5000</v>
       </c>
       <c r="H22" s="3">
         <v>5000</v>
       </c>
       <c r="I22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="J22" s="3">
         <v>4700</v>
       </c>
       <c r="K22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L22" s="3">
         <v>4900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-94400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-99800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4000</v>
       </c>
       <c r="L24" s="3">
         <v>4000</v>
       </c>
       <c r="M24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-70300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-96700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-38600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-96700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>24000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-38600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-96700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>29300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-38600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-96700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>29300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>54800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E44" s="3">
         <v>75500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>72600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>70000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>85400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>77300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>80600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>73600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E45" s="3">
         <v>38800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E46" s="3">
         <v>171200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>123000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>151200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>136800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>136700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>120700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>104400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,110 +2594,119 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E48" s="3">
         <v>281400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>319000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>331200</v>
       </c>
       <c r="G48" s="3">
         <v>331200</v>
       </c>
       <c r="H48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="I48" s="3">
         <v>337700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>118000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>118400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>106200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>102400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>102300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E49" s="3">
         <v>163500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>190400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>229300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>232100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>330400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>333200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>336400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>339600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>342800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>346000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>349600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>353200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>356900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>360500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,49 +2820,52 @@
         <v>2200</v>
       </c>
       <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>700</v>
       </c>
       <c r="O52" s="3">
+        <v>700</v>
+      </c>
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>574700</v>
+      </c>
+      <c r="E54" s="3">
         <v>618300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>634000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>694600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>695200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>803800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>627000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>622100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>604400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>593600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>597600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>569400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>580800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>568300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,66 +3011,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E57" s="3">
         <v>58600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E58" s="3">
         <v>266700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2800</v>
       </c>
       <c r="F58" s="3">
         <v>2800</v>
@@ -2979,110 +3113,119 @@
         <v>2800</v>
       </c>
       <c r="R58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E59" s="3">
         <v>96700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>413200</v>
+      </c>
+      <c r="E60" s="3">
         <v>422000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>129800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>139000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>107600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>84700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>89200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>87400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,99 +3233,105 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>231200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>236500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>236800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>237100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>237500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>237800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>238200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>238500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>238900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>244100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>244400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>264200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>264400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E62" s="3">
         <v>227500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>241800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>252300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>250200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>259700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>98700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>93600</v>
       </c>
       <c r="R62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>624200</v>
+      </c>
+      <c r="E66" s="3">
         <v>649500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>595400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>618500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>622600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>635800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>413200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>411700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>401800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>402500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>418200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>450400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>425900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>449500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>445400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-157200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>91700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>89600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>72500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-31200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>168000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>213800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>210400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>202600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>179300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>149700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>143500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>122900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-38600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-96700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>29300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>14400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4634,11 +4868,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-50200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,31 +5059,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>32200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-700</v>
       </c>
       <c r="K100" s="3">
         <v>-700</v>
@@ -4849,25 +5095,28 @@
         <v>-700</v>
       </c>
       <c r="M100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E102" s="3">
         <v>33300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E8" s="3">
         <v>92600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>91000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>166100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>180700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>176500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>170900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>179700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>181500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>188700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>162000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>181400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E9" s="3">
         <v>37600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>68000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>60200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E10" s="3">
         <v>55000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>107000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>105300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>116300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>107800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>108500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>122700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>115600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>105500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,28 +1046,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>36100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>95400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1064,8 +1084,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E17" s="3">
         <v>114500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>180700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>205100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>275500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>165600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>160200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>161500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>177000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>148700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>155700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>147600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>156100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-89700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-94800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>18500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,13 +1313,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1333,220 +1367,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-80700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-85400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5000</v>
       </c>
       <c r="I22" s="3">
         <v>5000</v>
       </c>
       <c r="J22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K22" s="3">
         <v>4700</v>
       </c>
       <c r="L22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M22" s="3">
         <v>4900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-94400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-99800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>20600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-24100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>4000</v>
       </c>
       <c r="M24" s="3">
         <v>4000</v>
       </c>
       <c r="N24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-70300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-96700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-96700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>24000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,13 +1983,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1969,61 +2039,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-96700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-96700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E41" s="3">
         <v>31800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,220 +2424,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E44" s="3">
         <v>64200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>75500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>72600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>70000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>85400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>77300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>80600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>73600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>66600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E45" s="3">
         <v>44100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E46" s="3">
         <v>144200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>171200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>132500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>135400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>171300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>151200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>136700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>109100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>120700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>104400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,116 +2702,125 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>254200</v>
+      </c>
+      <c r="E48" s="3">
         <v>267000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>319000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>331200</v>
       </c>
       <c r="H48" s="3">
         <v>331200</v>
       </c>
       <c r="I48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="J48" s="3">
         <v>337700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>118000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>106200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>102400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E49" s="3">
         <v>161200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>163500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>190400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>229300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>232100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>330400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>333200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>336400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>339600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>342800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>346000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>349600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>353200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>356900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>360500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
         <v>2200</v>
       </c>
       <c r="F52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>537300</v>
+      </c>
+      <c r="E54" s="3">
         <v>574700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>618300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>634000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>694600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>695200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>803800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>627000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>622100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>604400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>593600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>597600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>569400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>580800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>568300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,72 +3142,76 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E57" s="3">
         <v>44000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>56500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>265200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>266700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2800</v>
       </c>
       <c r="G58" s="3">
         <v>2800</v>
@@ -3116,222 +3250,237 @@
         <v>2800</v>
       </c>
       <c r="S58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E59" s="3">
         <v>104100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>96700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>76600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E60" s="3">
         <v>413200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>422000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>129800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>139000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>107600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>84700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>89200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>87400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>228500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>231200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>236500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>236800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>237100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>237500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>237800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>238200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>238500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>238900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>244100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>244400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>264200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>264400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219700</v>
+      </c>
+      <c r="E62" s="3">
         <v>211000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>241800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>252300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>250200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>259700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>93600</v>
       </c>
       <c r="S62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>607800</v>
+      </c>
+      <c r="E66" s="3">
         <v>624200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>649500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>595400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>618500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>622600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>635800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>413200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>411700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>401800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>402500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>418200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>450400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>425900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>449500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>445400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-199400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-157200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>91700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>89600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-49600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-31200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>168000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>213800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>210400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>202600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>179300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>149700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>143500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>122900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-96700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>14400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4871,11 +5105,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-50200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,34 +5305,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-700</v>
       </c>
       <c r="L100" s="3">
         <v>-700</v>
@@ -5098,25 +5344,28 @@
         <v>-700</v>
       </c>
       <c r="N100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O100" s="3">
         <v>-5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43316</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43134</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E8" s="3">
         <v>117200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>166100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>180700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>170900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>181500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>188700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>162000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>181400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>166900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E9" s="3">
         <v>48200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>40800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>71300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E10" s="3">
         <v>69000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>107000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>105300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>116300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>108500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>122700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>115600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>105500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,31 +1066,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>36100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>95400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1087,8 +1107,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E17" s="3">
         <v>141300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>180700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>205100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>275500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>165600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>161500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>177000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>148700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>155700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>147600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>156100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-89700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-94800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,17 +1347,18 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1370,232 +1404,247 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-80700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-85400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5000</v>
       </c>
       <c r="J22" s="3">
         <v>5000</v>
       </c>
       <c r="K22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="L22" s="3">
         <v>4700</v>
       </c>
       <c r="M22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N22" s="3">
         <v>4900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-94400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-99800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>20600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-24100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4000</v>
       </c>
       <c r="N24" s="3">
         <v>4000</v>
       </c>
       <c r="O24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-70300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-38600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-96700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-38600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-96700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,11 +1917,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>24000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,17 +2053,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2042,64 +2112,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-38600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-96700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-38600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-96700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43316</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43134</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>9200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,232 +2517,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E44" s="3">
         <v>67600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>64200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>75500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>72600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>70000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>77300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>80600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>73600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>66600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E45" s="3">
         <v>41600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113300</v>
+      </c>
+      <c r="E46" s="3">
         <v>122100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>144200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>171200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>123000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>135400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>171300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>151200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>136800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>136700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>109100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>120700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>104400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,122 +2810,131 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E48" s="3">
         <v>254200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>319000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>331200</v>
       </c>
       <c r="I48" s="3">
         <v>331200</v>
       </c>
       <c r="J48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K48" s="3">
         <v>337700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>118400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>106200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>102400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E49" s="3">
         <v>158900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>161200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>163500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>190400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>229300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>232100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>330400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>333200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>336400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>339600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>342800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>346000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>349600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>353200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>356900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>360500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2200</v>
       </c>
       <c r="F52" s="3">
         <v>2200</v>
       </c>
       <c r="G52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
       <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>497200</v>
+      </c>
+      <c r="E54" s="3">
         <v>537300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>574700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>618300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>634000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>694600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>695200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>803800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>627000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>622100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>604400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>593600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>597600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>569400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>580800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>568300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,78 +3273,82 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E57" s="3">
         <v>62500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>265200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>266700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2800</v>
       </c>
       <c r="H58" s="3">
         <v>2800</v>
@@ -3253,234 +3387,249 @@
         <v>2800</v>
       </c>
       <c r="T58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E59" s="3">
         <v>94300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>96700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>79800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E60" s="3">
         <v>159600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>413200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>422000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>129800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>139000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>103100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>107600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>84700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>89200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>87400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E61" s="3">
         <v>228500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>231200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>236500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>236800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>237100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>237500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>237800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>238200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>238500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>238900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>244100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>244400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>264200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>264400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E62" s="3">
         <v>219700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>211000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>227500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>241800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>252300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>250200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>259700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>93600</v>
       </c>
       <c r="T62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>594100</v>
+      </c>
+      <c r="E66" s="3">
         <v>607800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>624200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>649500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>595400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>618500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>622600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>635800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>413200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>411700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>401800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>402500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>418200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>450400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>425900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>449500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>445400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-199400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-157200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>91700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>89600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>82900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-70500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-49600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-31200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>76100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>168000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>213800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>210400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>202600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>179300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>149700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>143500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>122900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43316</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43134</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-38600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-96700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>8400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>14400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5108,11 +5342,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-50200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,37 +5551,40 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-700</v>
       </c>
       <c r="M100" s="3">
         <v>-700</v>
@@ -5347,25 +5593,28 @@
         <v>-700</v>
       </c>
       <c r="O100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43498</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43407</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43316</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43225</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43134</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E8" s="3">
         <v>125900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>117200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>91000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>180700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>170900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>179700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>181500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>188700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>162000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>181400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>166100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>166900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E9" s="3">
         <v>54500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>60200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>71300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E10" s="3">
         <v>71400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>50200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>107000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>105300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>116300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>120300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>108500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>122700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>115600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>105500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,34 +1086,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>14300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>36100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>95400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1110,8 +1130,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E17" s="3">
         <v>154400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>141300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>114500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>180700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>205100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>275500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>165600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>162900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>161500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>177000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>148700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>155700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>147600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>156100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-89700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-94800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>18500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,20 +1381,21 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1407,244 +1441,259 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-80700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-85400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>28200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5000</v>
       </c>
       <c r="K22" s="3">
         <v>5000</v>
       </c>
       <c r="L22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="M22" s="3">
         <v>4700</v>
       </c>
       <c r="N22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O22" s="3">
         <v>4900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-94400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-41700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-99800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>20600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-24100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4000</v>
       </c>
       <c r="O24" s="3">
         <v>4000</v>
       </c>
       <c r="P24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-70300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-38600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-96700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-38600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-96700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,31 +1937,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1920,11 +1981,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>24000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,20 +2123,23 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2115,67 +2185,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-38600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-96700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>29300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-38600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-96700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>29300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43498</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43407</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43316</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43225</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43134</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2488,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,244 +2610,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E43" s="3">
         <v>7800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E44" s="3">
         <v>58000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>75500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>72600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>70000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>80600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>73600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>66600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E45" s="3">
         <v>43000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E46" s="3">
         <v>113300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>122100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>144200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>171200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>175300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>171300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>151200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>136800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>136700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>109100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>120700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>104400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,128 +2918,137 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E48" s="3">
         <v>235000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>254200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>281400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>319000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>331200</v>
       </c>
       <c r="J48" s="3">
         <v>331200</v>
       </c>
       <c r="K48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="L48" s="3">
         <v>337700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>118000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>118400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>106200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>102400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E49" s="3">
         <v>148700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>158900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>161200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>163500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>190400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>229300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>232100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>330400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>333200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>336400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>339600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>342800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>346000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>349600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>353200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>356900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>360500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,58 +3180,61 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2200</v>
       </c>
       <c r="G52" s="3">
         <v>2200</v>
       </c>
       <c r="H52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>700</v>
       </c>
       <c r="R52" s="3">
+        <v>700</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E54" s="3">
         <v>497200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>537300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>574700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>618300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>634000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>694600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>695200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>803800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>627000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>622100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>604400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>593600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>597600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>569400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>580800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>568300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,84 +3404,88 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E57" s="3">
         <v>56300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E58" s="3">
         <v>13900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>265200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>266700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2800</v>
       </c>
       <c r="I58" s="3">
         <v>2800</v>
@@ -3390,246 +3524,261 @@
         <v>2800</v>
       </c>
       <c r="U58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E59" s="3">
         <v>81800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>104100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>96700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>79800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E60" s="3">
         <v>152000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>413200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>422000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>129800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>139000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>103100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>105500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>107600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>84700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>89200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>87400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E61" s="3">
         <v>228700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>228500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>231200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>236500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>236800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>237100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>237500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>237800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>238200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>238500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>238900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>244100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>244400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>264200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>264400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>223700</v>
+      </c>
+      <c r="E62" s="3">
         <v>213300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>211000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>227500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>241800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>252300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>250200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>259700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>73800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96100</v>
-      </c>
-      <c r="T62" s="3">
-        <v>93600</v>
       </c>
       <c r="U62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>604400</v>
+      </c>
+      <c r="E66" s="3">
         <v>594100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>607800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>624200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>649500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>595400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>618500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>622600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>635800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>413200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>411700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>401800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>402500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>418200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>450400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>425900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>449500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>445400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-244700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-226400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-199400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-176300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-157200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>91700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>89600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>82900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>61500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-96900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-70500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-49600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-31200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>76100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>168000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>213800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>210400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>202600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>179300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>149700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>143500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>131200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>122900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43498</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43407</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43316</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43225</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43134</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-38600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-96700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>29300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>14400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5345,11 +5579,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-50200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,40 +5797,43 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
         <v>10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-700</v>
       </c>
       <c r="N100" s="3">
         <v>-700</v>
@@ -5596,25 +5842,28 @@
         <v>-700</v>
       </c>
       <c r="P100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>33300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43498</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43407</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43316</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43225</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43134</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E8" s="3">
         <v>129100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>117200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>92600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>91000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>168100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>166100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>180700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>170900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>181500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>188700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>162000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>181400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>166100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>166900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E9" s="3">
         <v>41300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>60200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>58600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>71300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>53500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E10" s="3">
         <v>87800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>50200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>107000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>105300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>107800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>115500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>116600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>120300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>117400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>108500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>122700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>115600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>105500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,37 +1106,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>14300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>36100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>95400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1133,8 +1153,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1151,8 +1171,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E17" s="3">
         <v>120400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>154400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>141300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>114500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>180700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>205100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>275500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>165600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>162900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>161500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>177000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>148700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>155700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>147600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>156100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E18" s="3">
         <v>8700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-89700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-94800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>18500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,23 +1415,24 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1444,256 +1478,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-80700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-85400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>28200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
         <v>4800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5000</v>
       </c>
       <c r="L22" s="3">
         <v>5000</v>
       </c>
       <c r="M22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="N22" s="3">
         <v>4700</v>
       </c>
       <c r="O22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P22" s="3">
         <v>4900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-94400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-99800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>20600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-24100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4000</v>
       </c>
       <c r="P24" s="3">
         <v>4000</v>
       </c>
       <c r="Q24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-70300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-96700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-96700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,8 +2027,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1984,11 +2045,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>24000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,23 +2193,26 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E32" s="3">
         <v>20800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2188,70 +2258,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>29300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>29300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43498</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43407</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43316</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43225</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43134</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,70 +2575,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>59900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,256 +2703,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E44" s="3">
         <v>59300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>58000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>67600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>75500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>72600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>70000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>85400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>80600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>73600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>66600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E45" s="3">
         <v>44700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E46" s="3">
         <v>121800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>113300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>122100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>144200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>171200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>123000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>132500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>175300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>171300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>136800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>132500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>136700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>109100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>120700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>104400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,134 +3026,143 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E48" s="3">
         <v>220800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>254200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>319000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>331200</v>
       </c>
       <c r="K48" s="3">
         <v>331200</v>
       </c>
       <c r="L48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="M48" s="3">
         <v>337700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>118000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>118400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>106200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>102400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>102300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E49" s="3">
         <v>146600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>148700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>158900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>161200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>163500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>190400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>229300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>232100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>330400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>333200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>336400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>339600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>342800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>346000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>349600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>353200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>356900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>360500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,8 +3288,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3183,58 +3303,61 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>2100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2200</v>
       </c>
       <c r="H52" s="3">
         <v>2200</v>
       </c>
       <c r="I52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
       <c r="Q52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>700</v>
       </c>
       <c r="S52" s="3">
+        <v>700</v>
+      </c>
+      <c r="T52" s="3">
         <v>800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469500</v>
+      </c>
+      <c r="E54" s="3">
         <v>489400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>497200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>537300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>574700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>618300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>634000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>694600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>695200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>803800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>627000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>622100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>604400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>593600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>597600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>569400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>580800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>568300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,90 +3535,94 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E57" s="3">
         <v>47100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E58" s="3">
         <v>25800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>265200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>266700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2800</v>
       </c>
       <c r="J58" s="3">
         <v>2800</v>
@@ -3527,258 +3661,273 @@
         <v>2800</v>
       </c>
       <c r="V58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E59" s="3">
         <v>78800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>104100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>96700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>46100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E60" s="3">
         <v>151800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>152000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>413200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>422000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>129800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>135600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>139000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>103100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>105500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>107600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>84700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>89200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>87400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E61" s="3">
         <v>228900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>228700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>228500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>231200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>236500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>236800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>237100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>237500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>237800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>238200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>238500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>238900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>244100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>244400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>264200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>264400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E62" s="3">
         <v>223700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>213300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>211000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>227500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>241800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>252300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>250200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>259700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>98700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>93600</v>
       </c>
       <c r="V62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>530300</v>
+      </c>
+      <c r="E66" s="3">
         <v>604400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>594100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>607800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>624200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>649500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>595400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>618500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>622600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>635800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>413200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>411700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>401800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>402500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>418200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>450400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>425900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>449500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>445400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-269300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-244700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-226400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-199400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-176300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-157200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>91700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>89600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>61500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-115000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-96900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-70500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-49600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-31200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>168000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>213800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>210400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>202600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>179300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>149700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>143500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>131200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>122900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43498</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43407</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43316</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43225</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43134</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>29300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>14400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5582,11 +5816,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-50200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,43 +6043,46 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-700</v>
       </c>
       <c r="O100" s="3">
         <v>-700</v>
@@ -5845,25 +6091,28 @@
         <v>-700</v>
       </c>
       <c r="Q100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>33300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>33400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,310 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43589</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43498</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43407</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43316</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43225</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43134</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E8" s="3">
         <v>159200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>117200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>92600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>91000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>168100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>180700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>170900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>179700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>181500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>188700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>162000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>181400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>166100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>166900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E9" s="3">
         <v>49900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>60200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>58600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>71300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>53500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E10" s="3">
         <v>109300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>105300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>107800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>117400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>108500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>122700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>115600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>105500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1126,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1120,29 +1140,29 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>14300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>36100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>95400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1156,8 +1176,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1174,8 +1194,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E17" s="3">
         <v>135700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>120400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>154400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>141300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>114500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>180700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>205100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>275500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>162900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>161500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>177000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>148700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>155700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>147600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>156100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>23500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-89700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-37000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-94800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>18500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,26 +1449,27 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1481,268 +1515,283 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-80700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-27400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-85400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>5000</v>
       </c>
       <c r="M22" s="3">
         <v>5000</v>
       </c>
       <c r="N22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="O22" s="3">
         <v>4700</v>
       </c>
       <c r="P22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>4900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-94400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-99800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>20600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-24100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4000</v>
       </c>
       <c r="Q24" s="3">
         <v>4000</v>
       </c>
       <c r="R24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-70300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-96700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-96700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2030,8 +2091,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2048,11 +2109,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>24000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,26 +2263,29 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>38900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2261,73 +2331,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-96700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-96700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43589</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43498</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43407</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43316</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43225</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43134</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,73 +2662,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>18100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>59900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>13500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,268 +2796,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E44" s="3">
         <v>48500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>58000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>67600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>64200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>75500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>72600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>70000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>85400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>78800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>80600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>85400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>73600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>66600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E45" s="3">
         <v>43400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E46" s="3">
         <v>115500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>121800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>113300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>122100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>144200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>171200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>123000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>132500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>175300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>171300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>151200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>136800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>132500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>136700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>109100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>120700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>104400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,140 +3134,149 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E48" s="3">
         <v>209300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>220800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>254200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>267000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>281400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>319000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>331200</v>
       </c>
       <c r="L48" s="3">
         <v>331200</v>
       </c>
       <c r="M48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="N48" s="3">
         <v>337700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>118000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>118400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>106200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>102400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>102300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E49" s="3">
         <v>144500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>146600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>148700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>158900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>161200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>163500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>190400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>229300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>232100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>330400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>333200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>336400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>339600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>342800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>346000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>349600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>353200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>356900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>360500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,13 +3408,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -3306,58 +3426,61 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>2100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2200</v>
       </c>
       <c r="I52" s="3">
         <v>2200</v>
       </c>
       <c r="J52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>700</v>
       </c>
       <c r="T52" s="3">
+        <v>700</v>
+      </c>
+      <c r="U52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3544,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>466200</v>
+      </c>
+      <c r="E54" s="3">
         <v>469500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>489400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>497200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>537300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>574700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>618300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>634000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>694600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>695200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>803800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>627000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>622100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>604400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>593600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>597600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>569400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>580800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>568300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,96 +3666,100 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E57" s="3">
         <v>37800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>56500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>265200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>266700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>2800</v>
@@ -3664,270 +3798,285 @@
         <v>2800</v>
       </c>
       <c r="W58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E59" s="3">
         <v>83800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>78800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>96700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>41400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E60" s="3">
         <v>129300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>151800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>159600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>413200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>422000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>122400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>129800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>139000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>103100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>105500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>107600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>84700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>89200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>87400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E61" s="3">
         <v>224400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>228900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>228700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>228500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>231200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>236500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>236800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>237100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>237500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>237800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>238200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>238500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>238900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>244100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>244400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>264200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>264400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E62" s="3">
         <v>176700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>223700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>213300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>211000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>227500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>241800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>252300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>250200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>259700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>98700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>96100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>93600</v>
       </c>
       <c r="W62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4276,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E66" s="3">
         <v>530300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>604400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>594100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>607800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>624200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>649500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>595400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>618500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>622600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>635800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>413200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>411700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>401800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>402500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>418200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>450400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>425900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>449500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>445400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4642,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-258100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-269300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-244700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-226400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-199400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-176300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-157200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>91700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>89600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>82900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>61500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +4914,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-60900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-115000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-96900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-70500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-49600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-31200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>168000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>213800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>210400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>202600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>191000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>179300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>149700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>143500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>131200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>122900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43589</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43498</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43407</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43316</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43225</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43134</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-96700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E89" s="3">
         <v>32000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,73 +5721,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>14400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5819,11 +6053,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-50200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,46 +6289,49 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-700</v>
       </c>
       <c r="P100" s="3">
         <v>-700</v>
@@ -6094,25 +6340,28 @@
         <v>-700</v>
       </c>
       <c r="R100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6176,69 +6425,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>33400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,323 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43498</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43407</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43316</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43225</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43134</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E8" s="3">
         <v>151700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>159200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>129100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>117200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>168100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>180700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>176500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>170900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>179700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>181500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>188700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>162000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>181400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>166100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>166900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E9" s="3">
         <v>47200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>71300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>53500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>61400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E10" s="3">
         <v>104500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>69000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>105300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>116300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>107800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>115500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>117400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>108500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>122700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>115600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>105500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,13 +1146,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1143,29 +1163,29 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>14300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>95400</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1179,8 +1199,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1197,8 +1217,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1265,8 +1288,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E17" s="3">
         <v>132700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>135700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>120400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>154400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>141300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>114500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>180700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>205100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>275500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>165600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>162900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>161500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>177000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>148700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>155700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>147600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>156100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E18" s="3">
         <v>19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-89700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-94800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>25700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>18500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,8 +1483,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,20 +1493,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-38900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1518,280 +1552,295 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>26200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-80700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-27400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-85400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>28200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>19800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>5000</v>
       </c>
       <c r="N22" s="3">
         <v>5000</v>
       </c>
       <c r="O22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="P22" s="3">
         <v>4700</v>
       </c>
       <c r="Q22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R22" s="3">
         <v>4900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-94400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-99800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>20600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-24100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>4000</v>
       </c>
       <c r="R24" s="3">
         <v>4000</v>
       </c>
       <c r="S24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-70300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-96700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-96700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>8000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2120,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2094,8 +2155,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2112,11 +2173,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>24000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2130,8 +2191,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,8 +2333,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2275,20 +2345,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>38900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2334,76 +2404,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-96700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>8000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-96700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>8000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43498</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43407</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43316</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43225</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43134</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,76 +2749,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>13500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,280 +2889,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>8100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>48500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>58000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>67600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>64200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>75500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>70000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>85400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>78800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>61600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>80600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>85400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>73600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>66600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E45" s="3">
         <v>43700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E46" s="3">
         <v>126100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>115500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>121800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>122100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>144200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>123000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>175300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>171300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>151200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>136800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>132500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>136700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>109100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>120700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>104400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,146 +3242,155 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E48" s="3">
         <v>197400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>209300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>220800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>235000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>254200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>281400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>319000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>331200</v>
       </c>
       <c r="M48" s="3">
         <v>331200</v>
       </c>
       <c r="N48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="O48" s="3">
         <v>337700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>118000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>118400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>106200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>102400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E49" s="3">
         <v>142500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>144500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>146600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>148700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>158900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>161200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>163500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>190400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>229300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>232100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>330400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>333200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>336400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>339600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>342800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>346000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>349600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>353200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>356900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>360500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,8 +3528,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3420,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3429,58 +3549,61 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>2100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2200</v>
       </c>
       <c r="J52" s="3">
         <v>2200</v>
       </c>
       <c r="K52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
       </c>
       <c r="U52" s="3">
+        <v>700</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3670,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>451800</v>
+      </c>
+      <c r="E54" s="3">
         <v>466200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>469500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>489400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>497200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>537300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>574700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>618300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>634000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>694600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>695200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>803800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>627000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>622100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>604400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>593600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>597600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>569400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>580800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>568300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,102 +3797,106 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E57" s="3">
         <v>54200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>54000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>56500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>265200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>266700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2800</v>
       </c>
       <c r="L58" s="3">
         <v>2800</v>
@@ -3801,282 +3935,297 @@
         <v>2800</v>
       </c>
       <c r="X58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E59" s="3">
         <v>85100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>78800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>104100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>96700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>47100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>41400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>46100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E60" s="3">
         <v>146300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>129300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>152000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>159600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>413200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>422000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>122400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>129800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>135600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>139000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>103100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>105500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>107600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>84700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>89200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>87400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E61" s="3">
         <v>201700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>224400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>228900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>228700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>228500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>231200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>236500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>236800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>237100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>237500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>237800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>238200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>238500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>238900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>244100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>244400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>264200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>264400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E62" s="3">
         <v>167000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>176700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>223700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>213300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>219700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>211000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>227500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>241800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>252300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>250200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>259700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>98700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>96800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>96100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>93600</v>
       </c>
       <c r="X62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4434,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>496500</v>
+      </c>
+      <c r="E66" s="3">
         <v>515000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>530300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>604400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>594100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>607800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>624200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>649500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>595400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>618500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>622600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>635800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>413200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>411700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>401800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>402500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>418200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>450400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>425900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>449500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>445400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4816,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-258100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-269300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-244700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-226400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-199400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-176300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-157200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>91700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>82900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>72500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>61500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5100,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-48900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-60900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-115000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-96900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-70500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-49600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-31200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>168000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>213800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>210400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>202600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>191000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>179300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>149700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>143500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>131200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>122900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43498</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43407</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43316</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43225</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43134</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-96700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>8000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,8 +5418,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5229,67 +5428,70 @@
         <v>7200</v>
       </c>
       <c r="E83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>25600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +5942,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>14400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6153,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6056,11 +6290,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-50200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6088,8 +6322,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,49 +6535,52 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-700</v>
       </c>
       <c r="Q100" s="3">
         <v>-700</v>
@@ -6343,25 +6589,28 @@
         <v>-700</v>
       </c>
       <c r="S100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6428,72 +6677,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-22600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-51900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>33400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,323 +665,335 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43498</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43407</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43316</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43134</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E8" s="3">
         <v>145200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>151700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>159200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>125900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>117200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>92600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>91000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>166100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>180700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>176500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>170900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>179700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>181500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>188700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>162000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>181400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>166100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>166900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E9" s="3">
         <v>52400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>60200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>63100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>71300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>53500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>61400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E10" s="3">
         <v>92800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>69000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>107000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>105300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>116300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>107800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>115500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>120300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>117400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>108500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>122700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>115600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>105500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,16 +1165,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1166,29 +1185,29 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>14300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>52000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>95400</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1202,8 +1221,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1220,8 +1239,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1291,8 +1313,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E17" s="3">
         <v>137600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>135700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>120400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>154400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>141300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>114500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>180700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>205100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>157100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>275500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>165600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>161500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>177000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>148700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>155700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>147600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>156100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E18" s="3">
         <v>7600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-89700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-37000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-94800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>18500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,8 +1516,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1496,20 +1529,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-38900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1555,292 +1588,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-80700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-27400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-85400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>34000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>27400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>19800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5000</v>
       </c>
       <c r="O22" s="3">
         <v>5000</v>
       </c>
       <c r="P22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="Q22" s="3">
         <v>4700</v>
       </c>
       <c r="R22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S22" s="3">
         <v>4900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-94400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-99800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>20600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>13600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-24100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>4000</v>
       </c>
       <c r="S24" s="3">
         <v>4000</v>
       </c>
       <c r="T24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-70300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-96700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-38600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-96700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2158,8 +2218,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2176,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>24000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2194,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,8 +2402,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2348,20 +2417,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>38900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2407,79 +2476,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-38600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-96700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-38600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-96700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43498</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43407</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43316</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43225</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43134</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E41" s="3">
         <v>36000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>59900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2892,292 +2981,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E44" s="3">
         <v>56000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>48500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>59300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>58000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>64200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>70000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>85400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>78800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>61600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>80600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>85400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>73600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>66600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E45" s="3">
         <v>25500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>41600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E46" s="3">
         <v>123200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>126100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>115500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>121800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>113300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>122100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>144200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>171200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>123000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>135400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>175300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>171300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>151200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>136800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>132500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>136700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>109100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>120700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>104400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,152 +3349,161 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E48" s="3">
         <v>188100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>197400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>209300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>220800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>254200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>267000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>281400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>319000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>331200</v>
       </c>
       <c r="N48" s="3">
         <v>331200</v>
       </c>
       <c r="O48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="P48" s="3">
         <v>337700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>118000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>118400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>106200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>102400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>102300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E49" s="3">
         <v>140400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>142500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>144500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>146600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>148700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>158900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>161200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>163500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>190400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>229300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>232100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>330400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>333200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>336400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>339600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>342800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>346000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>349600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>353200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>356900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>360500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,8 +3647,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,7 +3662,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3552,58 +3671,61 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>2100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2200</v>
       </c>
       <c r="K52" s="3">
         <v>2200</v>
       </c>
       <c r="L52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>600</v>
       </c>
       <c r="T52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
       <c r="V52" s="3">
+        <v>700</v>
+      </c>
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>463600</v>
+      </c>
+      <c r="E54" s="3">
         <v>451800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>466200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>469500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>489400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>497200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>537300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>574700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>618300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>634000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>694600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>695200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>803800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>627000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>622100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>604400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>593600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>597600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>569400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>580800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>568300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,79 +3927,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E57" s="3">
         <v>49900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>47100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>54000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>56500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3878,28 +4011,28 @@
         <v>7700</v>
       </c>
       <c r="E58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>265200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>266700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2800</v>
       </c>
       <c r="M58" s="3">
         <v>2800</v>
@@ -3938,294 +4071,309 @@
         <v>2800</v>
       </c>
       <c r="Y58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E59" s="3">
         <v>81100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>104100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>96700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>79800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>47100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>46100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E60" s="3">
         <v>138700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>146300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>129300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>152000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>159600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>413200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>422000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>122400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>129800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>135600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>139000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>103100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>105500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>107600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>84700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>89200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>87400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E61" s="3">
         <v>202100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>201700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>224400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>228900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>228700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>228500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>231200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>236500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>236800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>237100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>237500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>237800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>238200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>238500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>238900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>244100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>244400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>264200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>264400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E62" s="3">
         <v>155600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>167000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>176700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>223700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>213300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>219700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>211000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>227500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>241800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>252300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>250200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>259700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>98700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>96800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>96100</v>
-      </c>
-      <c r="X62" s="3">
-        <v>93600</v>
       </c>
       <c r="Y62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>493900</v>
+      </c>
+      <c r="E66" s="3">
         <v>496500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>515000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>530300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>604400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>594100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>607800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>624200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>649500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>595400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>618500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>622600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>635800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>413200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>411700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>401800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>402500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>418200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>450400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>425900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>449500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>445400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-240100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-254500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-258100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-269300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-244700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-199400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-176300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>91700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>89600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>72500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>61500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-44700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-48900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-60900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-115000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-96900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-70500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-49600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-31200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>168000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>213800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>210400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>202600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>191000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>179300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>149700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>143500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>131200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>122900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43498</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43407</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43316</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43225</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43134</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-38600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-96700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="E83" s="3">
         <v>7200</v>
       </c>
       <c r="F83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>21800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>14400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6293,11 +6526,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-50200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6325,8 +6558,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,52 +6780,55 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-52100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-700</v>
       </c>
       <c r="R100" s="3">
         <v>-700</v>
@@ -6592,25 +6837,28 @@
         <v>-700</v>
       </c>
       <c r="T100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U100" s="3">
         <v>-5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6680,75 +6928,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-51900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>33400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43498</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43407</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43316</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43225</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43134</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E8" s="3">
         <v>157100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>151700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>159200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>129100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>125900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>117200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>91000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>168100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>166100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>180700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>176500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>170900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>179700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>181500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>188700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>162000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>181400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>166100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>166900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E9" s="3">
         <v>47600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>68000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>60200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>63100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>71300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>53500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>61400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>112400</v>
+      </c>
+      <c r="E10" s="3">
         <v>109500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>92800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>69000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>107000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>105300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>107800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>115500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>116600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>120300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>117400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>108500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>122700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>115600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>105500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,19 +1185,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1188,29 +1208,29 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>14300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>52000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>36100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>95400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1224,8 +1244,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1242,8 +1262,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E17" s="3">
         <v>133200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>137600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>135700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>120400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>154400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>114500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>180700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>205100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>275500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>165600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>162900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>160400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>161500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>177000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>148700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>155700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>147600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>156100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E18" s="3">
         <v>23900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-89700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-37000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-94800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>18500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,8 +1550,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,20 +1566,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-38900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1591,82 +1625,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E21" s="3">
         <v>30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-80700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>18400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-85400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>17400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>34000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>27400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,221 +1714,230 @@
         <v>4500</v>
       </c>
       <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>5000</v>
       </c>
       <c r="P22" s="3">
         <v>5000</v>
       </c>
       <c r="Q22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="R22" s="3">
         <v>4700</v>
       </c>
       <c r="S22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="T22" s="3">
         <v>4900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E23" s="3">
         <v>19400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-94400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-99800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>20600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>13600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-24100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>4000</v>
       </c>
       <c r="T24" s="3">
         <v>4000</v>
       </c>
       <c r="U24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E26" s="3">
         <v>14400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-70300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-38600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-96700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-96700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>8000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,8 +2282,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>24000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,8 +2472,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2420,20 +2490,20 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>38900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2479,82 +2549,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-96700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>8000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-96700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>8000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43498</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43407</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43316</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43225</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43134</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +2922,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E41" s="3">
         <v>40800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>59900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>62000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,304 +3074,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E44" s="3">
         <v>63200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>48500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>59300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>58000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>75500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>81400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>70000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>85400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>78800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>61600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>80600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>85400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>73600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>66600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E45" s="3">
         <v>27100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>41600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E46" s="3">
         <v>138800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>123200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>121800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>122100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>144200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>171200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>123000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>132500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>135400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>175300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>171300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>151200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>136800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>132500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>136700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>109100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>120700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>104400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,158 +3457,167 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E48" s="3">
         <v>186200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>188100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>197400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>209300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>220800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>235000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>254200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>267000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>281400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>319000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>331200</v>
       </c>
       <c r="O48" s="3">
         <v>331200</v>
       </c>
       <c r="P48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>337700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>118000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>118400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>106200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>102400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>102300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>136600</v>
+      </c>
+      <c r="E49" s="3">
         <v>138500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>140400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>142500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>144500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>146600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>148700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>158900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>161200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>163500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>190400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>229300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>232100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>330400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>333200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>336400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>339600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>342800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>346000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>349600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>353200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>356900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>360500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,8 +3767,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3665,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3674,58 +3794,61 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2200</v>
       </c>
       <c r="L52" s="3">
         <v>2200</v>
       </c>
       <c r="M52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>700</v>
       </c>
       <c r="W52" s="3">
+        <v>700</v>
+      </c>
+      <c r="X52" s="3">
         <v>800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>460300</v>
+      </c>
+      <c r="E54" s="3">
         <v>463600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>451800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>466200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>469500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>489400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>497200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>537300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>574700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>618300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>634000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>694600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>695200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>803800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>627000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>622100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>604400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>593600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>597600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>569400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>580800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>568300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,114 +4058,118 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E57" s="3">
         <v>46500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>47100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>54000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>56500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>40500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>38400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
         <v>7700</v>
       </c>
       <c r="F58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>265200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>266700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2800</v>
       </c>
       <c r="N58" s="3">
         <v>2800</v>
@@ -4074,306 +4208,321 @@
         <v>2800</v>
       </c>
       <c r="Z58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AA58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E59" s="3">
         <v>84000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>78800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>96700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>45300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>41400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>47800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>46100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E60" s="3">
         <v>138200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>146300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>129300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>152000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>159600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>413200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>422000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>122400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>129800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>135600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>139000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>103100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>105500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>107600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>84700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>89200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>87400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E61" s="3">
         <v>202700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>202100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>201700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>224400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>228900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>228700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>228500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>231200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>236500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>236800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>237100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>237500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>237800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>238200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>238500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>238900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>244100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>244400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>264200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>264400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E62" s="3">
         <v>153100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>155600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>167000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>176700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>223700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>213300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>219700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>211000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>227500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>241800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>252300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>250200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>259700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>98700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>96800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>96100</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>93600</v>
       </c>
       <c r="Z62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>472100</v>
+      </c>
+      <c r="E66" s="3">
         <v>493900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>496500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>515000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>530300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>604400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>594100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>607800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>624200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>649500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>595400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>618500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>622600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>635800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>413200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>411700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>401800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>402500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>418200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>450400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>425900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>449500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>445400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-222300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-240100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-254500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-258100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-269300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-244700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-199400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-176300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>91700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>89600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>82900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>72500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>61500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-30300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-44700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-48900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-60900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-115000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-96900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-70500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-49600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-31200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>168000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>213800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>210400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>202600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>191000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>179300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>149700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>143500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>131200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>122900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43498</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43407</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43316</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43225</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43134</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-96700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>8000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7200</v>
       </c>
       <c r="F83" s="3">
         <v>7200</v>
       </c>
       <c r="G83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E89" s="3">
         <v>7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>30100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>14400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6529,11 +6763,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6561,8 +6795,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,55 +7026,58 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-700</v>
       </c>
       <c r="S100" s="3">
         <v>-700</v>
@@ -6840,25 +7086,28 @@
         <v>-700</v>
       </c>
       <c r="U100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V100" s="3">
         <v>-5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6931,78 +7180,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>33400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43498</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43407</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43316</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43225</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43134</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E8" s="3">
         <v>160300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>151700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>159200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>129100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>125900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>117200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>91000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>168100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>166100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>180700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>176500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>170900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>179700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>181500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>188700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>162000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>181400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>166100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>166900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E9" s="3">
         <v>47900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>68000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>60200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>71300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>53500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>61400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E10" s="3">
         <v>112400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>92800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>87800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>69000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>50200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>107000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>105300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>107800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>115500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>120300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>117400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>108500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>122700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>115600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>105500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,22 +1205,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1211,29 +1231,29 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>14300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>52000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>95400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1247,8 +1267,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1265,8 +1285,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E17" s="3">
         <v>132200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>133200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>137600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>135700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>120400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>154400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>114500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>180700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>205100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>275500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>165600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>162900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>160200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>160400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>161500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>177000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>148700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>155700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>147600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>156100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E18" s="3">
         <v>28200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-89700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-37000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-94800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>18500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1584,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1569,20 +1603,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-38900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1628,316 +1662,331 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E21" s="3">
         <v>34500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-80700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-27400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>18400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>29400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>34000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>27400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
         <v>4500</v>
       </c>
       <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5000</v>
       </c>
       <c r="Q22" s="3">
         <v>5000</v>
       </c>
       <c r="R22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="S22" s="3">
         <v>4700</v>
       </c>
       <c r="T22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U22" s="3">
         <v>4900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>23700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-94400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-41700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>14400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>8800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>20600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>13600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-24100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>4000</v>
       </c>
       <c r="U24" s="3">
         <v>4000</v>
       </c>
       <c r="V24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>17800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-70300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>8000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2346,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>24000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2542,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2493,20 +2563,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>38900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2552,85 +2622,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>12000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>8000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>12000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>8000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43498</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43407</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43316</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43225</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43134</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E41" s="3">
         <v>61900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>59900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>62000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>15300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>13500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,316 +3167,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E44" s="3">
         <v>54400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>63200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>56900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>58000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>67600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>75500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>72600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>81400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>70000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>85400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>78800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>80600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>85400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>62800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>73600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>66600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>25600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>41600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E46" s="3">
         <v>145900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>126100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>115500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>121800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>113300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>144200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>171200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>132500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>135400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>175300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>171300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>151200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>136800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>132500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>136700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>109100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>120700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>104400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,164 +3565,173 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E48" s="3">
         <v>177600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>186200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>188100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>197400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>209300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>220800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>235000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>254200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>267000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>281400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>319000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>331200</v>
       </c>
       <c r="P48" s="3">
         <v>331200</v>
       </c>
       <c r="Q48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="R48" s="3">
         <v>337700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>118000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>118400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>113100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>106200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>102400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>102300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E49" s="3">
         <v>136600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>138500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>140400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>142500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>144500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>146600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>148700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>158900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>163500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>190400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>229300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>232100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>330400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>333200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>336400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>339600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>342800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>346000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>349600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>353200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>356900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>360500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,8 +3887,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3788,7 +3908,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3797,58 +3917,61 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>2100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2200</v>
       </c>
       <c r="M52" s="3">
         <v>2200</v>
       </c>
       <c r="N52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>700</v>
       </c>
       <c r="X52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>489400</v>
+      </c>
+      <c r="E54" s="3">
         <v>460300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>463600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>451800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>466200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>469500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>489400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>497200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>537300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>574700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>618300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>634000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>694600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>695200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>803800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>627000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>622100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>604400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>593600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>597600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>569400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>580800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>568300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4189,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E57" s="3">
         <v>40200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>47100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>43100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>54000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>56500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>38500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>38400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,34 +4279,34 @@
         <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>2700</v>
       </c>
       <c r="F58" s="3">
         <v>7700</v>
       </c>
       <c r="G58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>265200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>266700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2800</v>
       </c>
       <c r="O58" s="3">
         <v>2800</v>
@@ -4211,318 +4345,333 @@
         <v>2800</v>
       </c>
       <c r="AA58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E59" s="3">
         <v>80300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>78800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>96700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>45300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>48800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>41400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>47800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>46100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E60" s="3">
         <v>123200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>146300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>129300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>152000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>159600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>413200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>422000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>122400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>135600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>139000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>103100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>105500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>107600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>84700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>89200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>87400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E61" s="3">
         <v>203300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>202700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>202100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>201700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>224400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>228900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>228700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>228500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>231200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>236500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>236800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>237100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>237500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>237800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>238200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>238500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>238900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>244100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>244400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>264200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>264400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E62" s="3">
         <v>145500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>153100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>155600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>167000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>176700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>223700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>213300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>219700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>211000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>227500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>241800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>252300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>250200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>259700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>73800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>98700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>96800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>96100</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>93600</v>
       </c>
       <c r="AA62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>491400</v>
+      </c>
+      <c r="E66" s="3">
         <v>472100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>493900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>496500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>515000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>530300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>604400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>594100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>607800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>624200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>649500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>595400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>618500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>622600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>635800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>413200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>411700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>401800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>402500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>418200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>450400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>425900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>449500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>445400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-213400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-222300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-240100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-254500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-258100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-269300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-244700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-226400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-199400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-176300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-87000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>91700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>89600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>82900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>72500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>61500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-30300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-44700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-48900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-60900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-115000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-96900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-70500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-49600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-31200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>168000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>213800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>210400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>202600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>191000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>179300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>149700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>143500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>131200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>122900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43498</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43407</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43316</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43225</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43134</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-96700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>12000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>8000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7200</v>
       </c>
       <c r="G83" s="3">
         <v>7200</v>
       </c>
       <c r="H83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E89" s="3">
         <v>28300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>30100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>14400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,8 +6954,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6766,11 +7000,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-50200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6798,8 +7032,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,58 +7272,61 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-700</v>
       </c>
       <c r="T100" s="3">
         <v>-700</v>
@@ -7089,25 +7335,28 @@
         <v>-700</v>
       </c>
       <c r="V100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W100" s="3">
         <v>-5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7183,81 +7432,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>33300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-51900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>13300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>8500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43498</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43407</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43316</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43225</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43134</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E8" s="3">
         <v>150200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>157100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>151700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>159200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>129100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>125900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>91000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>168100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>166100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>180700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>176500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>170900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>179700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>181500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>188700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>162000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>181400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>166100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>166900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E9" s="3">
         <v>45200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>68000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>60200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>63100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>61200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>71300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>53500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>58700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>61400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E10" s="3">
         <v>105000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>92800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>109300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>87800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>69000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>50200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>107000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>105300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>107800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>115500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>120300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>117400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>108500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>122700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>115600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>105500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,25 +1225,28 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1234,29 +1254,29 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>14300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>52000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>36100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>95400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1270,8 +1290,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1288,8 +1308,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E17" s="3">
         <v>131400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>133200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>132700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>135700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>120400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>154400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>114500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>180700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>205100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>275500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>165600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>162900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>160200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>160400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>161500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>177000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>148700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>155700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>147600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>156100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>18800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-89700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-37000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-94800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>11700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>18500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,8 +1618,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1606,20 +1640,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-38900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1665,328 +1699,343 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E21" s="3">
         <v>25300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>34500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-80700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-27400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>18400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-85400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>29400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>21000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>34000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>27400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>19800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E22" s="3">
         <v>5400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4500</v>
       </c>
       <c r="F22" s="3">
         <v>4500</v>
       </c>
       <c r="G22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>5000</v>
       </c>
       <c r="R22" s="3">
         <v>5000</v>
       </c>
       <c r="S22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="T22" s="3">
         <v>4700</v>
       </c>
       <c r="U22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V22" s="3">
         <v>4900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-94400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-41700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-99800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>14400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>20600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>13600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-24100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>4000</v>
       </c>
       <c r="V24" s="3">
         <v>4000</v>
       </c>
       <c r="W24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-70300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-96700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-38600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-96700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2410,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2428,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>24000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,8 +2612,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2566,20 +2636,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>38900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2625,88 +2695,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-19000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-38600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-96700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>12000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-19000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-38600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-96700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>12000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43498</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43407</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43316</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43225</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43134</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,88 +3096,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E41" s="3">
         <v>90100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>59900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>62000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>13500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,328 +3260,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>12700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E44" s="3">
         <v>60100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>56000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>56900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>67600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>72600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>81400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>70000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>85400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>78800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>80600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>85400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>62800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>73600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>66600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>41600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E46" s="3">
         <v>184700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>145900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>123200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>126100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>115500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>121800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>122100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>171200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>123000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>132500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>135400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>175300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>171300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>151200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>136800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>132500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>136700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>109100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>120700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>104400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,170 +3673,179 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E48" s="3">
         <v>169900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>177600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>186200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>188100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>197400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>209300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>220800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>254200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>267000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>281400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>319000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>331200</v>
       </c>
       <c r="Q48" s="3">
         <v>331200</v>
       </c>
       <c r="R48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="S48" s="3">
         <v>337700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>118000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>118400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>113100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>106200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>102400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>102300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E49" s="3">
         <v>134800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>138500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>140400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>142500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>144500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>146600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>158900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>161200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>163500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>190400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>229300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>232100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>330400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>333200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>336400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>339600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>342800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>346000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>349600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>353200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>356900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>360500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,8 +4007,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3911,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3920,58 +4040,61 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>2100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2200</v>
       </c>
       <c r="N52" s="3">
         <v>2200</v>
       </c>
       <c r="O52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
       </c>
       <c r="W52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>700</v>
       </c>
       <c r="Y52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>466400</v>
+      </c>
+      <c r="E54" s="3">
         <v>489400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>460300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>463600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>451800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>466200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>469500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>489400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>497200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>537300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>574700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>618300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>634000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>694600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>695200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>803800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>627000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>622100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>604400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>593600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>597600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>569400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>580800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>568300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,126 +4320,130 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E57" s="3">
         <v>47800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>54000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>56500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>38500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>38400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="E58" s="3">
         <v>2700</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>2700</v>
       </c>
       <c r="G58" s="3">
         <v>7700</v>
       </c>
       <c r="H58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>265200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>266700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2800</v>
       </c>
       <c r="P58" s="3">
         <v>2800</v>
@@ -4348,330 +4482,345 @@
         <v>2800</v>
       </c>
       <c r="AB58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AC58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E59" s="3">
         <v>98200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>80300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>84000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>83800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>78800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>96700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>48800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>41400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>47800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>46100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E60" s="3">
         <v>148800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>123200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>146300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>129300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>151800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>152000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>159600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>413200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>422000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>122400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>129800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>135600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>139000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>103100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>101500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>105500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>107600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>84700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>89200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>87400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E61" s="3">
         <v>204900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>203300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>202700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>202100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>201700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>224400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>228900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>228700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>228500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>231200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>236500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>236800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>237100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>237500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>237800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>238200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>238500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>238900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>244100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>244400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>264200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>264400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E62" s="3">
         <v>137700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>145500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>153100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>155600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>167000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>176700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>223700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>213300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>219700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>211000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>227500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>241800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>252300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>250200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>259700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>73800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>98700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>96800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>96100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>93600</v>
       </c>
       <c r="AB62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>466600</v>
+      </c>
+      <c r="E66" s="3">
         <v>491400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>472100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>493900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>496500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>515000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>530300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>604400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>594100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>607800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>624200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>649500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>595400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>618500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>622600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>635800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>413200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>411700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>401800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>402500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>418200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>450400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>425900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>449500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>445400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-212300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-213400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-222300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-240100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-254500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-258100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-269300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-244700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-226400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-199400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-176300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-157200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-87000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-50700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>91700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>89600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>82900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>72500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>61500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>32100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-30300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-44700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-48900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-60900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-115000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-96900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-70500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-49600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-31200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>168000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>213800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>210400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>202600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>191000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>179300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>149700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>143500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>131200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>122900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43498</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43407</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43316</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43225</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43134</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-19000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-38600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-96700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>12000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6213,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7200</v>
       </c>
       <c r="H83" s="3">
         <v>7200</v>
       </c>
       <c r="I83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>31300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>38300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>30100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6825,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>14400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7072,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7188,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7003,11 +7237,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-50200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7035,8 +7269,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,61 +7518,64 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-52100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-700</v>
       </c>
       <c r="U100" s="3">
         <v>-700</v>
@@ -7338,25 +7584,28 @@
         <v>-700</v>
       </c>
       <c r="W100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X100" s="3">
         <v>-5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7435,84 +7684,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-51900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>13300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>8500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,386 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43498</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43407</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43316</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43225</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43134</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E8" s="3">
         <v>147700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>150200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>151700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>159200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>91000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>168100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>180700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>176500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>170900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>174100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>179700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>181500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>188700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>162000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>181400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>166100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>166900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E9" s="3">
         <v>52600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>45200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>48200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>37600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>68000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>60200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>63100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>61200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>71300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>53500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>58700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>61400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E10" s="3">
         <v>95100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>105000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>112400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>92800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>104500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>109300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>87800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>69000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>107000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>105300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>116300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>107800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>115500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>116600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>120300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>117400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>108500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>122700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>115600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>105500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,28 +1244,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1257,29 +1276,29 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>14300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>52000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>36100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>95400</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1293,8 +1312,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1311,8 +1330,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1394,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E17" s="3">
         <v>139800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>133200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>137600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>135700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>120400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>154400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>114500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>180700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>205100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>157100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>275500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>165600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>162900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>160200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>160400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>161500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>177000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>148700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>155700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>147600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>156100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-89700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-94800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>11700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>25700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>18500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,8 +1651,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1643,20 +1676,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1702,340 +1735,355 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E21" s="3">
         <v>14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>34500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-80700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>18400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-85400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>17400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>28200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>21000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>21900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>34000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>27400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>19800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4500</v>
       </c>
       <c r="G22" s="3">
         <v>4500</v>
       </c>
       <c r="H22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>5000</v>
       </c>
       <c r="S22" s="3">
         <v>5000</v>
       </c>
       <c r="T22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="U22" s="3">
         <v>4700</v>
       </c>
       <c r="V22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="W22" s="3">
         <v>4900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-94400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-99800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>20600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>13600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-24100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2500</v>
-      </c>
-      <c r="V24" s="3">
-        <v>4000</v>
       </c>
       <c r="W24" s="3">
         <v>4000</v>
       </c>
       <c r="X24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-96700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>8000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-96700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>8000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2473,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2431,11 +2491,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>24000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2449,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,8 +2681,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2639,20 +2708,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>38900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2698,91 +2767,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-19000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-96700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>12000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>8000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-19000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-96700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>12000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>8000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43498</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43407</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43316</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43225</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43134</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E41" s="3">
         <v>87100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>59900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>62000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>15300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3263,340 +3352,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>12700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E44" s="3">
         <v>50600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>60100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>63200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>56000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>56900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>59300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>67600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>75500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>72600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>81400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>70000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>85400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>78800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>80600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>85400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>62800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>73600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>66600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>43700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>41600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E46" s="3">
         <v>160800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>145900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>126100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>121800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>122100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>144200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>171200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>123000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>132500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>135400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>175300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>171300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>151200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>136800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>132500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>136700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>109100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>120700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>104400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,176 +3780,185 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E48" s="3">
         <v>172600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>177600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>186200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>188100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>197400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>209300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>220800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>254200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>267000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>319000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>331200</v>
       </c>
       <c r="R48" s="3">
         <v>331200</v>
       </c>
       <c r="S48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="T48" s="3">
         <v>337700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>118000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>113300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>118400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>113100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>106200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>102400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>102300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E49" s="3">
         <v>132900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>134800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>136600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>138500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>140400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>142500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>144500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>146600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>148700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>158900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>161200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>163500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>190400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>229300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>232100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>330400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>333200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>336400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>339600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>342800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>346000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>349600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>353200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>356900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>360500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,13 +4126,16 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -4034,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -4043,58 +4162,61 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>2100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2200</v>
       </c>
       <c r="O52" s="3">
         <v>2200</v>
       </c>
       <c r="P52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y52" s="3">
         <v>700</v>
       </c>
       <c r="Z52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>408000</v>
+      </c>
+      <c r="E54" s="3">
         <v>466400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>489400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>460300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>463600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>451800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>466200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>469500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>489400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>497200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>537300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>574700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>618300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>634000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>694600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>695200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>803800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>627000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>622100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>604400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>593600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>597600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>600100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>569400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>580800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>568300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,132 +4450,136 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E57" s="3">
         <v>39300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>43100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>54000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>56500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>38500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>38400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2700</v>
       </c>
       <c r="F58" s="3">
         <v>2700</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>2700</v>
       </c>
       <c r="H58" s="3">
         <v>7700</v>
       </c>
       <c r="I58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>265200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>266700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2800</v>
       </c>
       <c r="Q58" s="3">
         <v>2800</v>
@@ -4485,342 +4618,357 @@
         <v>2800</v>
       </c>
       <c r="AC58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AD58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E59" s="3">
         <v>84300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>98200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>80300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>85100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>83800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>78800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>96700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>79800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>81100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>47100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>45700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>55600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>48800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>41400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>47800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>46100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>123600</v>
+      </c>
+      <c r="E60" s="3">
         <v>127000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>148800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>123200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>146300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>129300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>152000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>159600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>413200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>422000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>122400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>129800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>135600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>139000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>103100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>101500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>105500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>107600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>84700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>89200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>87400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E61" s="3">
         <v>205200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>204900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>203300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>202700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>202100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>201700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>224400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>228900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>228700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>228500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>231200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>236500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>236800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>237100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>237500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>237800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>238200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>238500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>238900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>244100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>244400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>264200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>264400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E62" s="3">
         <v>134400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>137700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>145500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>153100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>155600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>167000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>176700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>223700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>213300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>219700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>211000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>227500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>241800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>252300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>250200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>259700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>73800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>98700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>96800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>96100</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>93600</v>
       </c>
       <c r="AC62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>404600</v>
+      </c>
+      <c r="E66" s="3">
         <v>466600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>491400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>472100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>493900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>496500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>515000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>530300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>604400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>594100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>607800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>624200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>649500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>595400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>618500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>622600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>635800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>413200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>411700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>401800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>402500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>418200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>450400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>425900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>449500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>445400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-207700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-212300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-213400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-222300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-240100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-254500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-258100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-269300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-244700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-226400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-199400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-176300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-157200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-50700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>91700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>89600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>82900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>72500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>61500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>32100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-30300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-44700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-48900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-60900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-115000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-96900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-70500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-49600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-31200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>168000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>213800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>210400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>202600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>191000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>179300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>149700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>143500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>131200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>122900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43498</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43407</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43316</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43225</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43134</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-19000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-96700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>12000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>8000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,91 +6411,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7200</v>
       </c>
       <c r="I83" s="3">
         <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>38300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>30100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>14400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,8 +7421,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7240,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-50200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7272,8 +7505,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,64 +7763,67 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>32200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-52100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-700</v>
       </c>
       <c r="V100" s="3">
         <v>-700</v>
@@ -7587,25 +7832,28 @@
         <v>-700</v>
       </c>
       <c r="X100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7687,87 +7935,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>33300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-51900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>33400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>13300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>8500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-10500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JILL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>JILL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43498</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43407</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43316</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43225</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43134</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E8" s="3">
         <v>149400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>150200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>160300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>151700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>159200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>117200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>91000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>168100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>180700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>176500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>170900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>174100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>179700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>181500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>188700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>162000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>181400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>166100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>166900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>159400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E9" s="3">
         <v>41900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>45200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>48200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>37600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>68000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>60200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>63100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>63100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>61200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>71300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>53500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>58700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>50500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>61400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>51300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E10" s="3">
         <v>107500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>95100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>105000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>112400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>92800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>104500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>109300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>87800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>69000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>107000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>105300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>107800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>115500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>116600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>120300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>117400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>108500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>122700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>115600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>105500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,31 +1264,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1279,29 +1299,29 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>14300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>52000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>36100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>95400</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1315,8 +1335,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1333,8 +1353,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E17" s="3">
         <v>136700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>131400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>133200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>135700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>154400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>141300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>114500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>180700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>205100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>275500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>165600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>162900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>160200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>160400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>161500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>177000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>148700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>155700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>147600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>156100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
         <v>12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-89700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-37000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-94800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>20000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>13300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>25700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>18500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,8 +1685,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1679,20 +1713,20 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-38900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1738,352 +1772,367 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E21" s="3">
         <v>18300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>34500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-80700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-27400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>18400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-85400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>17400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>28200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>29400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>21000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>21900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>34000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>27400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>19800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4500</v>
       </c>
       <c r="H22" s="3">
         <v>4500</v>
       </c>
       <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>5000</v>
       </c>
       <c r="T22" s="3">
         <v>5000</v>
       </c>
       <c r="U22" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="V22" s="3">
         <v>4700</v>
       </c>
       <c r="W22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="X22" s="3">
         <v>4900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>4900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E23" s="3">
         <v>6600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-36600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-94400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-41700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-99800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>8800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>20600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>13600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>4000</v>
       </c>
       <c r="X24" s="3">
         <v>4000</v>
       </c>
       <c r="Y24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>3700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E26" s="3">
         <v>4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-38600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-96700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>8000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-38600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-96700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>12000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>8000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,8 +2537,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2494,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>24000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,8 +2751,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2711,20 +2781,20 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>38900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2770,94 +2840,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-38600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-96700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>29300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>12000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>8000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-38600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-96700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>29300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>12000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>8000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43498</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43407</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43316</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43225</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43134</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E41" s="3">
         <v>27900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>87100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>66200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>59900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>62000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>26000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>28700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>15300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>13500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,352 +3445,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>12700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E44" s="3">
         <v>53800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>50600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>54400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>56000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>56900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>59300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>64200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>75500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>72600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>81400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>70000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>85400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>78800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>80600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>85400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>62800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>73600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>66600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>41600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>25100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>18600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E46" s="3">
         <v>107100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>160800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>123200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>126100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>121800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>122100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>144200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>171200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>123000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>132500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>131700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>135400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>175300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>171300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>151200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>136800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>132500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>136700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>109100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>120700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>104400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>113500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,182 +3888,191 @@
         <v>0</v>
       </c>
       <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>170700</v>
+      </c>
+      <c r="E48" s="3">
         <v>169400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>172600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>169900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>177600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>186200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>188100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>197400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>209300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>220800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>254200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>267000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>319000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>331200</v>
       </c>
       <c r="S48" s="3">
         <v>331200</v>
       </c>
       <c r="T48" s="3">
+        <v>331200</v>
+      </c>
+      <c r="U48" s="3">
         <v>337700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>118000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>113100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>113300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>118400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>113100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>106200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>102400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>102300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>98100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E49" s="3">
         <v>131100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>132900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>134800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>136600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>138500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>140400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>142500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>144500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>146600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>148700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>158900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>161200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>163500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>190400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>229300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>232100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>330400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>333200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>336400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>339600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>342800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>346000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>349600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>353200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>356900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>360500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>364200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,16 +4246,19 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -4156,7 +4276,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -4165,58 +4285,61 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>2100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2200</v>
       </c>
       <c r="P52" s="3">
         <v>2200</v>
       </c>
       <c r="Q52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
-      </c>
-      <c r="W52" s="3">
-        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z52" s="3">
         <v>700</v>
       </c>
       <c r="AA52" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB52" s="3">
         <v>800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>416800</v>
+      </c>
+      <c r="E54" s="3">
         <v>408000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>466400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>489400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>460300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>463600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>451800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>466200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>469500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>489400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>497200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>537300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>574700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>618300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>634000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>694600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>695200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>803800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>627000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>622100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>604400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>593600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>597600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>600100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>569400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>580800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>568300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>578500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,94 +4581,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E57" s="3">
         <v>41900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>53000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>51600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>43100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>54000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>56500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>40500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>38500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>38400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4546,43 +4680,43 @@
         <v>8800</v>
       </c>
       <c r="E58" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F58" s="3">
         <v>3400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2700</v>
       </c>
       <c r="G58" s="3">
         <v>2700</v>
       </c>
       <c r="H58" s="3">
-        <v>7700</v>
+        <v>2700</v>
       </c>
       <c r="I58" s="3">
         <v>7700</v>
       </c>
       <c r="J58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>265200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>266700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2800</v>
       </c>
       <c r="R58" s="3">
         <v>2800</v>
@@ -4621,268 +4755,280 @@
         <v>2800</v>
       </c>
       <c r="AD58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AE58" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E59" s="3">
         <v>73000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>84300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>98200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>80300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>81100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>85100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>78800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>76600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>76000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>79800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>45300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>47100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>45700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>55600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>48800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>48300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>41400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>47800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>46100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E60" s="3">
         <v>123600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>123200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>146300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>129300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>152000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>159600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>413200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>422000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>122400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>129800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>135600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>139000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>103100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>101500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>91700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>105500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>107600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>84700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>89200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>87400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E61" s="3">
         <v>151800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>205200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>204900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>203300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>202700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>202100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>201700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>224400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>228900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>228700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>228500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>231200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>236500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>236800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>237100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>237500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>237800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>238200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>238500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>238900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>244100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>244400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>264200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>264400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>274400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4890,85 +5036,88 @@
         <v>129200</v>
       </c>
       <c r="E62" s="3">
+        <v>129200</v>
+      </c>
+      <c r="F62" s="3">
         <v>134400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>137700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>145500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>153100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>155600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>167000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>223700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>213300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>219700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>211000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>227500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>241800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>252300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>250200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>259700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>72300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>73800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>98700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>96800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>96100</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>93600</v>
       </c>
       <c r="AD62" s="3">
         <v>93600</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>397600</v>
+      </c>
+      <c r="E66" s="3">
         <v>404600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>466600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>491400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>472100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>493900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>496500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>515000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>530300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>604400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>594100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>607800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>624200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>649500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>595400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>618500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>622600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>635800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>413200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>411700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>401800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>402500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>418200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>450400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>425900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>449500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>445400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>459700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-192500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-207700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-212300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-213400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-222300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-240100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-254500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-258100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-269300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-244700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-199400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-176300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-87000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-48400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-50700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>91700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>89600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>82900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>72500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>61500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>32100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-30300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-44700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-48900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-60900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-115000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-96900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-70500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-49600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>168000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>213800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>210400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>202600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>191000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>179300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>149700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>143500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>131200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>122900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>118800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43498</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43407</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43316</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43225</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43134</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-38600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-96700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>29300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>12000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>8000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6610,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7200</v>
       </c>
       <c r="J83" s="3">
         <v>7200</v>
       </c>
       <c r="K83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>8600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>8300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>8800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>8900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>38300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>30100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>14400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-11400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,8 +7655,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7476,11 +7710,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-50200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7508,8 +7742,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,67 +8009,70 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-5900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-52100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-700</v>
       </c>
       <c r="W100" s="3">
         <v>-700</v>
@@ -7835,25 +8081,28 @@
         <v>-700</v>
       </c>
       <c r="Y100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-18500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>33300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-51900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>33400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>13300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>8500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-10500</v>
       </c>
     </row>
